--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R97311be78ef14030"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="Rd0ecfc918cfe4263"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="Rd0ecfc918cfe4263"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="Rac9bdcc6fefd404e"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="Rac9bdcc6fefd404e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R910a4dde1fcd426e"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R910a4dde1fcd426e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="Ra3933eef3f724237"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="Ra3933eef3f724237"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="Rd90a1369faf34538"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="Rd90a1369faf34538"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R4fcf6cd59c804b99"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R4fcf6cd59c804b99"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R396cfe41872f49d1"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R396cfe41872f49d1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="Rb5d7111ad27148ca"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="Rb5d7111ad27148ca"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R67ebfd9094d745b5"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
@@ -5,8 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R67ebfd9094d745b5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R31c385905ed84b8e"/>
   </x:sheets>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R31c385905ed84b8e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="Re69e3b2603594435"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="Re69e3b2603594435"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R5d53337c6d514e28"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R5d53337c6d514e28"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="Rdc15af4c820e4f35"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="Rdc15af4c820e4f35"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R593d2ff76f1744d0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R593d2ff76f1744d0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R40517dd93c8a4bd6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R40517dd93c8a4bd6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="Rc34be5fd25d64bdd"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="Rc34be5fd25d64bdd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R88e52b5ff5534da6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R88e52b5ff5534da6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R97f834202f8d419e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R97f834202f8d419e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R5b318c420dbe4488"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R5b318c420dbe4488"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R6019791d716e4ff5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R6019791d716e4ff5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R759aa0276a304872"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R759aa0276a304872"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R157c36418214484c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R157c36418214484c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R7cb3ce35881547ff"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R7cb3ce35881547ff"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R63ff2c7449384bcc"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R63ff2c7449384bcc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R130ebe992a144f98"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R130ebe992a144f98"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="Rc43fefe52cc14eff"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="Rc43fefe52cc14eff"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R3573ecb71aaa4045"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R3573ecb71aaa4045"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="Re71d22d7f616414e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="Re71d22d7f616414e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="Rcb4d4ab3b88d448f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="Rcb4d4ab3b88d448f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R34ae55d49bf343b8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R34ae55d49bf343b8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R63e65253f3a94d39"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R63e65253f3a94d39"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R7df73302687a4744"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R7df73302687a4744"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="Rd78428f781b24c96"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="Rd78428f781b24c96"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="Rd82aac3a28a24e2f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="Rd82aac3a28a24e2f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R4bbe0d871e1041ab"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R4bbe0d871e1041ab"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="Ra78760a107934860"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/40_AdvancedFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="Ra78760a107934860"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R693181cb17ec483d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
